--- a/DX_프롬프트 엔지니어링_2일차_실습자료/2_vba_datasets/(문제)chatgpt_매출데이터.xlsx
+++ b/DX_프롬프트 엔지니어링_2일차_실습자료/2_vba_datasets/(문제)chatgpt_매출데이터.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsha/Library/Mobile Documents/com~apple~Keynote/Documents/(00_작성중)생성형AI를_활용한_업무효율화_높이기/keynotes/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\AIVLE\DX_프롬프트 엔지니어링_2일차_실습자료\2_vba_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC02F2B-A7CF-6B4F-BB82-F5FD631CE764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA616B9-8189-4CC1-920B-44B4095A0240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54400" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="516" yWindow="972" windowWidth="29100" windowHeight="14928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$G$26:$G$28</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$H$26:$H$28</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -431,6 +425,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -438,8 +434,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -590,7 +584,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -709,7 +703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1182370079"/>
@@ -768,7 +762,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1182368367"/>
@@ -809,7 +803,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-Kore-KR"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1367,16 +1361,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400685</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2479,29 +2473,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="8.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -2520,10 +2521,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -2720,10 +2721,10 @@
         <v>-11100529</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9" ht="13.5" customHeight="1">
       <c r="A14" s="10" t="s">
@@ -2869,10 +2870,10 @@
         <v>21072127</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1">
       <c r="A20" s="10" t="s">
@@ -3038,7 +3039,7 @@
         <v>40139356</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H26" s="4">
@@ -3064,7 +3065,7 @@
         <v>18007007</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="18" t="s">
         <v>44</v>
       </c>
       <c r="H27" s="17">
@@ -3090,7 +3091,7 @@
         <v>-11724994</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="17">
@@ -3170,15 +3171,35 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4e13380-6049-4f59-9391-9958b2774ca2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cb8fcf1b-9571-4d20-a8ff-81bee2907a75" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100EEFD2EC9AE4E1C4E97A968ACD5F6A537" ma:contentTypeVersion="11" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="0052cd9c5b100d9e1b5abbdc5cac24cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4e13380-6049-4f59-9391-9958b2774ca2" xmlns:ns3="cb8fcf1b-9571-4d20-a8ff-81bee2907a75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bc354dff9c47495eca12804ddc9d3bbc" ns2:_="" ns3:_="">
     <xsd:import namespace="e4e13380-6049-4f59-9391-9958b2774ca2"/>
@@ -3373,34 +3394,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4e13380-6049-4f59-9391-9958b2774ca2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cb8fcf1b-9571-4d20-a8ff-81bee2907a75" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59157886-C22F-43D3-9085-85DAAC349EA3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3FFD07-3A11-4F2D-BF80-C4F2846559C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e4e13380-6049-4f59-9391-9958b2774ca2"/>
+    <ds:schemaRef ds:uri="cb8fcf1b-9571-4d20-a8ff-81bee2907a75"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB00527-63CB-4B34-BE0E-651B10A765A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB00527-63CB-4B34-BE0E-651B10A765A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3FFD07-3A11-4F2D-BF80-C4F2846559C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59157886-C22F-43D3-9085-85DAAC349EA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e4e13380-6049-4f59-9391-9958b2774ca2"/>
+    <ds:schemaRef ds:uri="cb8fcf1b-9571-4d20-a8ff-81bee2907a75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>